--- a/lab4/Book1.xlsx
+++ b/lab4/Book1.xlsx
@@ -212,6 +212,170 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>569976</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>60694</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25669875" y="785813"/>
+          <a:ext cx="12190476" cy="9752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>617601</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>155944</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25717500" y="10787063"/>
+          <a:ext cx="12190476" cy="9752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38125400" y="711200"/>
+          <a:ext cx="11557000" cy="7404100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38011100" y="8255000"/>
+          <a:ext cx="11899900" cy="8623300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -480,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="BR94" sqref="BR94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
